--- a/Base_4jueces.xlsx
+++ b/Base_4jueces.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montserratclinica-my.sharepoint.com/personal/eugenio_ferro_icsn_co/Documents/1Investigacion/1_Protocolos/Adaptacion C-SSRS/Registros/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive - UNIVERSIDAD DE CUNDINAMARCA\ANA_OF_DE_SERSALD\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{A4A64DAE-5996-4835-9164-E31EEA985F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E554F0C5-FC24-41E9-B035-FCB64BAEE42D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF849F8C-2BD0-464F-A486-3A0BC899812C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="12525" xr2:uid="{EB7757D0-216A-47A0-B29F-4C24644A3E43}"/>
+    <workbookView xWindow="12684" yWindow="0" windowWidth="11604" windowHeight="12336" xr2:uid="{EB7757D0-216A-47A0-B29F-4C24644A3E43}"/>
   </bookViews>
   <sheets>
     <sheet name="ConcordanciaAdaptaci_DATA_LABEL" sheetId="1" r:id="rId1"/>
@@ -3638,14 +3638,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D559AC0-6FCE-461D-BEBB-2AF46ECD29A4}">
   <dimension ref="A1:AU158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB81" sqref="AB81"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3722,7 +3724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3823,7 +3825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3948,7 +3950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4058,7 +4060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4180,7 +4182,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4287,7 +4289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4358,7 +4360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4480,7 +4482,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4620,7 +4622,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4721,7 +4723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4819,7 +4821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4941,7 +4943,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5015,7 +5017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5125,7 +5127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5250,7 +5252,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5342,7 +5344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5443,7 +5445,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5517,7 +5519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5630,7 +5632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5755,7 +5757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5853,7 +5855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5927,7 +5929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6052,7 +6054,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6141,7 +6143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6236,7 +6238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6328,7 +6330,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6411,7 +6413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6533,7 +6535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6664,7 +6666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6783,7 +6785,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6905,7 +6907,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7033,7 +7035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7122,7 +7124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7217,7 +7219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7306,7 +7308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7425,7 +7427,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7496,7 +7498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7627,7 +7629,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7758,7 +7760,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7853,7 +7855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7936,7 +7938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8058,7 +8060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8198,7 +8200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8329,7 +8331,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8460,7 +8462,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8591,7 +8593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8671,7 +8673,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8787,7 +8789,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8909,7 +8911,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9040,7 +9042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9165,7 +9167,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9215,7 +9217,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9286,7 +9288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9408,7 +9410,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9485,7 +9487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9577,7 +9579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9675,7 +9677,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9806,7 +9808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9880,7 +9882,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9954,7 +9956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -10028,7 +10030,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -10159,7 +10161,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -10287,7 +10289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -10415,7 +10417,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -10549,7 +10551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -10644,7 +10646,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -10769,7 +10771,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -10903,7 +10905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -11028,7 +11030,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -11078,7 +11080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -11200,7 +11202,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -11295,7 +11297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -11372,7 +11374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -11476,7 +11478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -11607,7 +11609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -11681,7 +11683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -11755,7 +11757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -11829,7 +11831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -11960,7 +11962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12079,7 +12081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -12180,7 +12182,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -12305,7 +12307,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -12415,7 +12417,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -12507,7 +12509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -12608,7 +12610,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -12694,7 +12696,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -12810,7 +12812,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -12932,7 +12934,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -13024,7 +13026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -13098,7 +13100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -13223,7 +13225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -13309,7 +13311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -13404,7 +13406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -13496,7 +13498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -13579,7 +13581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -13704,7 +13706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -13832,7 +13834,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -13954,7 +13956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -14076,7 +14078,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -14207,7 +14209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -14323,7 +14325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -14394,7 +14396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -14531,7 +14533,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -14665,7 +14667,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -14760,7 +14762,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -14885,7 +14887,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -15016,7 +15018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -15141,7 +15143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -15191,7 +15193,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -15313,7 +15315,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -15393,7 +15395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -15485,7 +15487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -15580,7 +15582,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -15711,7 +15713,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -15785,7 +15787,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -15859,7 +15861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -15933,7 +15935,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -16061,7 +16063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -16189,7 +16191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -16290,7 +16292,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -16409,7 +16411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -16540,7 +16542,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -16653,7 +16655,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -16760,7 +16762,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -16834,7 +16836,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -16953,7 +16955,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -17078,7 +17080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -17152,7 +17154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -17265,7 +17267,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -17348,7 +17350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -17443,7 +17445,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -17538,7 +17540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -17609,7 +17611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -17725,7 +17727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -17856,7 +17858,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -17978,7 +17980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -18100,7 +18102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -18225,7 +18227,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -18332,7 +18334,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -18403,7 +18405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -18525,7 +18527,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -18647,7 +18649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -18772,7 +18774,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -18897,7 +18899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -19019,7 +19021,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -19144,7 +19146,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -19194,7 +19196,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -19316,7 +19318,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -19387,7 +19389,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -19488,7 +19490,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -19592,7 +19594,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -19720,7 +19722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -19794,7 +19796,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -19868,7 +19870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -19939,7 +19941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -20061,7 +20063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -20177,7 +20179,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -20279,6 +20281,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AU158" xr:uid="{3D559AC0-6FCE-461D-BEBB-2AF46ECD29A4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>